--- a/product/idc/tests/data/ip.xlsx
+++ b/product/idc/tests/data/ip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nie/projects/laradrupal/profiles/neibrs/modules/product/idc/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nie/projects/drupal/modules/neibers/product/idc/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61572B54-7610-4F45-9C97-FC53F7C2832E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C319FCAD-923F-E941-80FB-3D6758FE4BCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6820" yWindow="600" windowWidth="27720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,43 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="85">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="152">
   <si>
     <t>192.168.1.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66.102.253.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配置三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66.102.253.11</t>
   </si>
   <si>
@@ -302,6 +258,240 @@
   </si>
   <si>
     <t>192.172.15.44</t>
+  </si>
+  <si>
+    <t>1U</t>
+  </si>
+  <si>
+    <t>2U</t>
+  </si>
+  <si>
+    <t>3U</t>
+  </si>
+  <si>
+    <t>4U</t>
+  </si>
+  <si>
+    <t>5U</t>
+  </si>
+  <si>
+    <t>6U</t>
+  </si>
+  <si>
+    <t>7U</t>
+  </si>
+  <si>
+    <t>8U</t>
+  </si>
+  <si>
+    <t>9U</t>
+  </si>
+  <si>
+    <t>10U</t>
+  </si>
+  <si>
+    <t>11U</t>
+  </si>
+  <si>
+    <t>12U</t>
+  </si>
+  <si>
+    <t>13U</t>
+  </si>
+  <si>
+    <t>14U</t>
+  </si>
+  <si>
+    <t>15U</t>
+  </si>
+  <si>
+    <t>16U</t>
+  </si>
+  <si>
+    <t>17U</t>
+  </si>
+  <si>
+    <t>18U</t>
+  </si>
+  <si>
+    <t>19U</t>
+  </si>
+  <si>
+    <t>20U</t>
+  </si>
+  <si>
+    <t>21U</t>
+  </si>
+  <si>
+    <t>22U</t>
+  </si>
+  <si>
+    <t>23U</t>
+  </si>
+  <si>
+    <t>24U</t>
+  </si>
+  <si>
+    <t>25U</t>
+  </si>
+  <si>
+    <t>26U</t>
+  </si>
+  <si>
+    <t>27U</t>
+  </si>
+  <si>
+    <t>28U</t>
+  </si>
+  <si>
+    <t>29U</t>
+  </si>
+  <si>
+    <t>30U</t>
+  </si>
+  <si>
+    <t>31U</t>
+  </si>
+  <si>
+    <t>32U</t>
+  </si>
+  <si>
+    <t>33U</t>
+  </si>
+  <si>
+    <t>34U</t>
+  </si>
+  <si>
+    <t>35U</t>
+  </si>
+  <si>
+    <t>36U</t>
+  </si>
+  <si>
+    <t>37U</t>
+  </si>
+  <si>
+    <t>38U</t>
+  </si>
+  <si>
+    <t>39U</t>
+  </si>
+  <si>
+    <t>66.103.252.10</t>
+  </si>
+  <si>
+    <t>66.103.252.11</t>
+  </si>
+  <si>
+    <t>66.103.252.12</t>
+  </si>
+  <si>
+    <t>66.103.252.13</t>
+  </si>
+  <si>
+    <t>66.103.252.14</t>
+  </si>
+  <si>
+    <t>66.103.252.15</t>
+  </si>
+  <si>
+    <t>66.103.252.16</t>
+  </si>
+  <si>
+    <t>66.103.252.17</t>
+  </si>
+  <si>
+    <t>66.103.252.18</t>
+  </si>
+  <si>
+    <t>66.103.252.19</t>
+  </si>
+  <si>
+    <t>66.103.252.20</t>
+  </si>
+  <si>
+    <t>66.103.252.21</t>
+  </si>
+  <si>
+    <t>66.103.252.22</t>
+  </si>
+  <si>
+    <t>66.103.252.23</t>
+  </si>
+  <si>
+    <t>66.103.252.24</t>
+  </si>
+  <si>
+    <t>66.103.252.25</t>
+  </si>
+  <si>
+    <t>66.103.252.26</t>
+  </si>
+  <si>
+    <t>66.103.252.27</t>
+  </si>
+  <si>
+    <t>66.103.252.28</t>
+  </si>
+  <si>
+    <t>66.103.252.29</t>
+  </si>
+  <si>
+    <t>66.103.252.30</t>
+  </si>
+  <si>
+    <t>66.103.252.31</t>
+  </si>
+  <si>
+    <t>66.103.252.32</t>
+  </si>
+  <si>
+    <t>66.103.252.33</t>
+  </si>
+  <si>
+    <t>66.103.252.34</t>
+  </si>
+  <si>
+    <t>66.103.252.35</t>
+  </si>
+  <si>
+    <t>66.103.252.36</t>
+  </si>
+  <si>
+    <t>66.103.252.37</t>
+  </si>
+  <si>
+    <t>66.103.252.38</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Changed</t>
   </si>
 </sst>
 </file>
@@ -692,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -703,39 +893,42 @@
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -743,28 +936,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>203</v>
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>43545</v>
@@ -775,28 +968,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>203</v>
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1">
         <v>43546</v>
@@ -807,28 +1000,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>203</v>
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
         <v>43547</v>
@@ -839,28 +1032,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>203</v>
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1">
         <v>43548</v>
@@ -871,28 +1064,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>203</v>
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1">
         <v>43549</v>
@@ -903,28 +1096,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>203</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1">
         <v>43550</v>
@@ -935,28 +1128,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>203</v>
       </c>
       <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>203</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1">
         <v>43551</v>
@@ -967,28 +1160,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>203</v>
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
         <v>43552</v>
@@ -999,28 +1192,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>203</v>
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1">
         <v>43553</v>
@@ -1031,28 +1224,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>203</v>
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1">
         <v>43554</v>
@@ -1063,28 +1256,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>203</v>
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1">
         <v>43555</v>
@@ -1095,28 +1288,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>203</v>
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1">
         <v>43556</v>
@@ -1127,28 +1320,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>203</v>
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1">
         <v>43557</v>
@@ -1159,28 +1352,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15">
-        <v>23</v>
-      </c>
-      <c r="F15">
-        <v>203</v>
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1">
         <v>43558</v>
@@ -1191,28 +1384,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16">
-        <v>24</v>
-      </c>
-      <c r="F16">
-        <v>203</v>
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1">
         <v>43559</v>
@@ -1223,28 +1416,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>25</v>
-      </c>
-      <c r="F17">
-        <v>203</v>
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1">
         <v>43560</v>
@@ -1255,28 +1448,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>26</v>
-      </c>
-      <c r="F18">
-        <v>203</v>
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1">
         <v>43561</v>
@@ -1287,28 +1480,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>202</v>
-      </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1">
         <v>43562</v>
@@ -1319,28 +1512,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>202</v>
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1">
         <v>43563</v>
@@ -1351,28 +1544,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>202</v>
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1">
         <v>43564</v>
@@ -1383,28 +1576,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>202</v>
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1">
         <v>43565</v>
@@ -1415,28 +1608,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>202</v>
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1">
         <v>43566</v>
@@ -1447,28 +1640,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>202</v>
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1">
         <v>43567</v>
@@ -1478,64 +1671,38 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <v>202</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="1">
-        <v>43568</v>
-      </c>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>202</v>
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1">
-        <v>43569</v>
+        <v>43568</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1543,127 +1710,75 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>203</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>202</v>
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1">
-        <v>43570</v>
+        <v>43569</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>202</v>
-      </c>
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="1">
-        <v>43571</v>
-      </c>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>202</v>
-      </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1">
-        <v>43572</v>
-      </c>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30">
-        <v>12</v>
-      </c>
-      <c r="F30">
-        <v>202</v>
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1">
-        <v>43573</v>
+        <v>43570</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1671,95 +1786,69 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31">
-        <v>13</v>
-      </c>
-      <c r="F31">
-        <v>202</v>
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1">
-        <v>43574</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32">
-        <v>14</v>
-      </c>
-      <c r="F32">
-        <v>202</v>
-      </c>
-      <c r="G32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="1">
-        <v>43575</v>
-      </c>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>205</v>
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J33" s="1">
-        <v>43576</v>
+        <v>43571</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1769,93 +1858,67 @@
       <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
+      <c r="C34">
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34">
-        <v>205</v>
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J34" s="1">
-        <v>43577</v>
+        <v>43594</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>205</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="1">
-        <v>43578</v>
-      </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36">
-        <v>8</v>
-      </c>
-      <c r="F36">
-        <v>205</v>
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1">
-        <v>43579</v>
+        <v>43572</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1863,95 +1926,69 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37">
-        <v>9</v>
-      </c>
-      <c r="F37">
-        <v>205</v>
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J37" s="1">
-        <v>43580</v>
+        <v>43595</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>205</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="1">
-        <v>43581</v>
-      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39">
-        <v>11</v>
-      </c>
-      <c r="F39">
-        <v>205</v>
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J39" s="1">
-        <v>43582</v>
+        <v>43573</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1959,95 +1996,69 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40">
-        <v>12</v>
-      </c>
-      <c r="F40">
-        <v>205</v>
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J40" s="1">
-        <v>43583</v>
+        <v>43596</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41">
-        <v>12</v>
-      </c>
-      <c r="F41">
-        <v>203</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="1">
-        <v>43584</v>
-      </c>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42">
-        <v>12</v>
-      </c>
-      <c r="F42">
-        <v>203</v>
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J42" s="1">
-        <v>43585</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2055,95 +2066,69 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
         <v>60</v>
       </c>
-      <c r="D43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43">
-        <v>12</v>
-      </c>
-      <c r="F43">
-        <v>203</v>
-      </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J43" s="1">
-        <v>43586</v>
+        <v>43597</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44">
-        <v>12</v>
-      </c>
-      <c r="F44">
-        <v>203</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="1">
-        <v>43587</v>
-      </c>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45">
-        <v>12</v>
-      </c>
-      <c r="F45">
-        <v>203</v>
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1">
-        <v>43588</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2151,31 +2136,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46">
-        <v>12</v>
-      </c>
-      <c r="F46">
-        <v>203</v>
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1">
-        <v>43589</v>
+        <v>43584</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2183,31 +2168,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47">
-        <v>12</v>
-      </c>
-      <c r="F47">
-        <v>203</v>
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J47" s="1">
-        <v>43590</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -2215,31 +2200,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48">
-        <v>12</v>
-      </c>
-      <c r="F48">
-        <v>203</v>
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J48" s="1">
-        <v>43591</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2247,31 +2232,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49">
-        <v>12</v>
-      </c>
-      <c r="F49">
-        <v>203</v>
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1">
-        <v>43592</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2279,31 +2264,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50">
-        <v>12</v>
-      </c>
-      <c r="F50">
-        <v>203</v>
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="H50" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J50" s="1">
-        <v>43593</v>
+        <v>43534</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -2311,95 +2296,69 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51">
-        <v>12</v>
-      </c>
-      <c r="F51">
-        <v>203</v>
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1">
-        <v>43594</v>
+        <v>43535</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52">
-        <v>12</v>
-      </c>
-      <c r="F52">
-        <v>203</v>
-      </c>
-      <c r="G52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="1">
-        <v>43595</v>
-      </c>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C53">
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53">
-        <v>12</v>
-      </c>
-      <c r="F53">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H53" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J53" s="1">
-        <v>43596</v>
+        <v>43536</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2407,31 +2366,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C54">
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54">
-        <v>12</v>
-      </c>
-      <c r="F54">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
+        <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J54" s="1">
-        <v>43597</v>
+        <v>43537</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2439,31 +2398,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C55">
+        <v>204</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55">
-        <v>12</v>
-      </c>
-      <c r="F55">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="H55" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J55" s="1">
-        <v>43598</v>
+        <v>43538</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -2471,31 +2430,31 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C56">
+        <v>205</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56">
-        <v>12</v>
-      </c>
-      <c r="F56">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="H56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1">
-        <v>43599</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2503,31 +2462,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57">
-        <v>12</v>
-      </c>
-      <c r="F57">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1">
-        <v>43600</v>
+        <v>43540</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -2535,31 +2494,31 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C58">
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58">
-        <v>12</v>
-      </c>
-      <c r="F58">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="H58" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J58" s="1">
-        <v>43601</v>
+        <v>43541</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -2567,31 +2526,31 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C59">
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59">
-        <v>12</v>
-      </c>
-      <c r="F59">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" t="s">
+        <v>50</v>
       </c>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="H59" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J59" s="1">
-        <v>43602</v>
+        <v>43542</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -2599,95 +2558,69 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C60">
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60">
-        <v>12</v>
-      </c>
-      <c r="F60">
-        <v>203</v>
+        <v>105</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J60" s="1">
-        <v>43603</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61">
-        <v>12</v>
-      </c>
-      <c r="F61">
-        <v>203</v>
-      </c>
-      <c r="G61" t="s">
-        <v>56</v>
-      </c>
-      <c r="H61" t="s">
-        <v>57</v>
-      </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="1">
-        <v>43604</v>
-      </c>
+      <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C62">
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62">
-        <v>12</v>
-      </c>
-      <c r="F62">
-        <v>203</v>
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J62" s="1">
-        <v>43605</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -2695,30 +2628,1346 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63">
+        <v>198</v>
+      </c>
+      <c r="D63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="1">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64">
+        <v>199</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="1">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="1">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66">
+        <v>201</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="1">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" t="s">
+        <v>48</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="1">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68">
+        <v>203</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" s="1">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>203</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>60</v>
+      </c>
+      <c r="G69" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="1">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="1">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72">
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s">
+        <v>53</v>
+      </c>
+      <c r="H72" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73">
+        <v>204</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="1">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74">
+        <v>205</v>
+      </c>
+      <c r="D74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s">
+        <v>128</v>
+      </c>
+      <c r="H74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="1">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75">
+        <v>206</v>
+      </c>
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s">
+        <v>129</v>
+      </c>
+      <c r="H75" t="s">
+        <v>48</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="1">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76">
+        <v>207</v>
+      </c>
+      <c r="D76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s">
+        <v>130</v>
+      </c>
+      <c r="H76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="1">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77">
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="1">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79">
+        <v>203</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="1">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80">
+        <v>203</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80" s="1">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81">
+        <v>203</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="1">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82">
+        <v>203</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="1">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83">
+        <v>204</v>
+      </c>
+      <c r="D83" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="1">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84">
+        <v>205</v>
+      </c>
+      <c r="D84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="1">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85">
+        <v>206</v>
+      </c>
+      <c r="D85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" s="1">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87">
+        <v>203</v>
+      </c>
+      <c r="D87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" s="1">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88">
+        <v>203</v>
+      </c>
+      <c r="D88" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" t="s">
+        <v>50</v>
+      </c>
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" t="s">
+        <v>48</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="1">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89">
+        <v>203</v>
+      </c>
+      <c r="D89" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="1">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91">
+        <v>203</v>
+      </c>
+      <c r="D91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="1">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92">
+        <v>203</v>
+      </c>
+      <c r="D92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s">
+        <v>56</v>
+      </c>
+      <c r="H92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92" s="1">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93">
+        <v>204</v>
+      </c>
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" s="1">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94">
+        <v>205</v>
+      </c>
+      <c r="D94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" t="s">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s">
+        <v>135</v>
+      </c>
+      <c r="H94" t="s">
+        <v>48</v>
+      </c>
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="1">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95">
+        <v>206</v>
+      </c>
+      <c r="D95" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F95" t="s">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" s="1">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96">
+        <v>207</v>
+      </c>
+      <c r="D96" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" t="s">
+        <v>50</v>
+      </c>
+      <c r="G96" t="s">
+        <v>137</v>
+      </c>
+      <c r="H96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" s="1">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97">
+        <v>203</v>
+      </c>
+      <c r="D97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" t="s">
         <v>71</v>
       </c>
-      <c r="D63" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63">
-        <v>12</v>
-      </c>
-      <c r="F63">
-        <v>203</v>
-      </c>
-      <c r="G63" t="s">
-        <v>56</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="H97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="1">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" s="1">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100">
+        <v>203</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s">
         <v>57</v>
       </c>
-      <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="1">
+      <c r="H100" t="s">
+        <v>48</v>
+      </c>
+      <c r="I100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="1">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101">
+        <v>203</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" t="s">
+        <v>72</v>
+      </c>
+      <c r="H101" t="s">
+        <v>48</v>
+      </c>
+      <c r="I101" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="1">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102">
+        <v>203</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" t="s">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s">
+        <v>138</v>
+      </c>
+      <c r="H102" t="s">
+        <v>48</v>
+      </c>
+      <c r="I102" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="1">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103">
+        <v>204</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" t="s">
+        <v>45</v>
+      </c>
+      <c r="F103" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s">
+        <v>139</v>
+      </c>
+      <c r="H103" t="s">
+        <v>48</v>
+      </c>
+      <c r="I103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" s="1">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104">
+        <v>205</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" t="s">
+        <v>140</v>
+      </c>
+      <c r="H104" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" t="s">
+        <v>5</v>
+      </c>
+      <c r="J104" s="1">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" t="s">
+        <v>45</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H105" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" s="1">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107">
+        <v>203</v>
+      </c>
+      <c r="D107" t="s">
+        <v>112</v>
+      </c>
+      <c r="E107" t="s">
+        <v>45</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" t="s">
+        <v>48</v>
+      </c>
+      <c r="I107" t="s">
+        <v>5</v>
+      </c>
+      <c r="J107" s="1">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108">
+        <v>203</v>
+      </c>
+      <c r="D108" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F108" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" t="s">
+        <v>58</v>
+      </c>
+      <c r="H108" t="s">
+        <v>48</v>
+      </c>
+      <c r="I108" t="s">
+        <v>5</v>
+      </c>
+      <c r="J108" s="1">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109">
+        <v>203</v>
+      </c>
+      <c r="D109" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" t="s">
+        <v>60</v>
+      </c>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109" t="s">
+        <v>48</v>
+      </c>
+      <c r="I109" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" s="1">
         <v>43606</v>
       </c>
     </row>

--- a/product/idc/tests/data/ip.xlsx
+++ b/product/idc/tests/data/ip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nie/projects/drupal/modules/neibers/product/idc/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FACC5CA-115E-DA42-9818-CDAF7956AF45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A272562-AC75-CA4B-AE51-52A00FE1D2A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1520" windowWidth="27720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/product/idc/tests/data/ip.xlsx
+++ b/product/idc/tests/data/ip.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nie/projects/drupal/modules/neibers/product/idc/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A272562-AC75-CA4B-AE51-52A00FE1D2A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C74460-DD85-D541-B1C0-8D80E84A08BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1520" windowWidth="27720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,9 +472,6 @@
     <t>Seat</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>空闲</t>
+  </si>
+  <si>
+    <t>Hardware</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,25 +918,25 @@
         <v>144</v>
       </c>
       <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>148</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>149</v>
-      </c>
-      <c r="K1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -1026,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
@@ -1058,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
@@ -1122,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
@@ -1154,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J8" t="s">
         <v>4</v>
@@ -1186,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
@@ -1218,7 +1218,7 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J10" t="s">
         <v>4</v>
@@ -1250,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J11" t="s">
         <v>4</v>
@@ -1282,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
         <v>4</v>
@@ -1314,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
@@ -1346,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
         <v>4</v>
@@ -1378,7 +1378,7 @@
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
         <v>4</v>
@@ -1410,7 +1410,7 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
         <v>4</v>
@@ -1442,7 +1442,7 @@
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
         <v>4</v>
@@ -1474,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
         <v>4</v>
@@ -1506,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" t="s">
         <v>4</v>
@@ -1570,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
         <v>4</v>
@@ -1602,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J22" t="s">
         <v>4</v>
@@ -1634,7 +1634,7 @@
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J23" t="s">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J24" t="s">
         <v>4</v>
@@ -1698,7 +1698,7 @@
         <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J25" t="s">
         <v>4</v>
@@ -1730,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J26" t="s">
         <v>4</v>
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J29" t="s">
         <v>4</v>
@@ -1806,7 +1806,7 @@
         <v>58</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J30" t="s">
         <v>4</v>
@@ -1844,7 +1844,7 @@
         <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J32" t="s">
         <v>4</v>
@@ -1876,7 +1876,7 @@
         <v>60</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J33" t="s">
         <v>4</v>
@@ -1914,7 +1914,7 @@
         <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" t="s">
         <v>4</v>
@@ -1946,7 +1946,7 @@
         <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" t="s">
         <v>4</v>
@@ -1984,7 +1984,7 @@
         <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J38" t="s">
         <v>4</v>
@@ -2016,7 +2016,7 @@
         <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J39" t="s">
         <v>4</v>
@@ -2054,7 +2054,7 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J41" t="s">
         <v>4</v>
@@ -2086,7 +2086,7 @@
         <v>63</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J42" t="s">
         <v>4</v>
@@ -2124,7 +2124,7 @@
         <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I44" t="s">
         <v>47</v>
@@ -2159,7 +2159,7 @@
         <v>48</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I45" t="s">
         <v>47</v>
@@ -2194,7 +2194,7 @@
         <v>112</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I46" t="s">
         <v>47</v>
@@ -2229,7 +2229,7 @@
         <v>113</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
@@ -2264,7 +2264,7 @@
         <v>114</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I48" t="s">
         <v>47</v>
@@ -2299,7 +2299,7 @@
         <v>115</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
@@ -2334,7 +2334,7 @@
         <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
@@ -2375,7 +2375,7 @@
         <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
         <v>47</v>
@@ -2410,7 +2410,7 @@
         <v>50</v>
       </c>
       <c r="H53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I53" t="s">
         <v>47</v>
@@ -2445,7 +2445,7 @@
         <v>116</v>
       </c>
       <c r="H54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
@@ -2480,7 +2480,7 @@
         <v>117</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I55" t="s">
         <v>47</v>
@@ -2515,7 +2515,7 @@
         <v>118</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I56" t="s">
         <v>47</v>
@@ -2550,7 +2550,7 @@
         <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I57" t="s">
         <v>47</v>
@@ -2585,7 +2585,7 @@
         <v>120</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I58" t="s">
         <v>47</v>
@@ -2620,7 +2620,7 @@
         <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I59" t="s">
         <v>47</v>
@@ -2661,7 +2661,7 @@
         <v>36</v>
       </c>
       <c r="H61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I61" t="s">
         <v>47</v>
@@ -2696,7 +2696,7 @@
         <v>121</v>
       </c>
       <c r="H62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I62" t="s">
         <v>47</v>
@@ -2731,7 +2731,7 @@
         <v>122</v>
       </c>
       <c r="H63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I63" t="s">
         <v>47</v>
@@ -2766,7 +2766,7 @@
         <v>123</v>
       </c>
       <c r="H64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I64" t="s">
         <v>47</v>
@@ -2801,7 +2801,7 @@
         <v>124</v>
       </c>
       <c r="H65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
@@ -2836,7 +2836,7 @@
         <v>125</v>
       </c>
       <c r="H66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I66" t="s">
         <v>47</v>
@@ -2871,7 +2871,7 @@
         <v>51</v>
       </c>
       <c r="H67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I67" t="s">
         <v>47</v>
@@ -2906,7 +2906,7 @@
         <v>66</v>
       </c>
       <c r="H68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I68" t="s">
         <v>47</v>
@@ -2947,7 +2947,7 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I70" t="s">
         <v>47</v>
@@ -2982,7 +2982,7 @@
         <v>52</v>
       </c>
       <c r="H71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I71" t="s">
         <v>47</v>
@@ -3017,7 +3017,7 @@
         <v>126</v>
       </c>
       <c r="H72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I72" t="s">
         <v>47</v>
@@ -3052,7 +3052,7 @@
         <v>127</v>
       </c>
       <c r="H73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I73" t="s">
         <v>47</v>
@@ -3087,7 +3087,7 @@
         <v>128</v>
       </c>
       <c r="H74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I74" t="s">
         <v>47</v>
@@ -3122,7 +3122,7 @@
         <v>129</v>
       </c>
       <c r="H75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I75" t="s">
         <v>47</v>
@@ -3157,7 +3157,7 @@
         <v>67</v>
       </c>
       <c r="H76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I76" t="s">
         <v>47</v>
@@ -3198,7 +3198,7 @@
         <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I78" t="s">
         <v>47</v>
@@ -3233,7 +3233,7 @@
         <v>53</v>
       </c>
       <c r="H79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I79" t="s">
         <v>47</v>
@@ -3268,7 +3268,7 @@
         <v>68</v>
       </c>
       <c r="H80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I80" t="s">
         <v>47</v>
@@ -3303,7 +3303,7 @@
         <v>129</v>
       </c>
       <c r="H81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I81" t="s">
         <v>47</v>
@@ -3338,7 +3338,7 @@
         <v>130</v>
       </c>
       <c r="H82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I82" t="s">
         <v>47</v>
@@ -3373,7 +3373,7 @@
         <v>131</v>
       </c>
       <c r="H83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I83" t="s">
         <v>47</v>
@@ -3408,7 +3408,7 @@
         <v>132</v>
       </c>
       <c r="H84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I84" t="s">
         <v>47</v>
@@ -3449,7 +3449,7 @@
         <v>39</v>
       </c>
       <c r="H86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I86" t="s">
         <v>47</v>
@@ -3484,7 +3484,7 @@
         <v>54</v>
       </c>
       <c r="H87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I87" t="s">
         <v>47</v>
@@ -3519,7 +3519,7 @@
         <v>69</v>
       </c>
       <c r="H88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I88" t="s">
         <v>47</v>
@@ -3560,7 +3560,7 @@
         <v>40</v>
       </c>
       <c r="H90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I90" t="s">
         <v>47</v>
@@ -3595,7 +3595,7 @@
         <v>55</v>
       </c>
       <c r="H91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I91" t="s">
         <v>47</v>
@@ -3630,7 +3630,7 @@
         <v>133</v>
       </c>
       <c r="H92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I92" t="s">
         <v>47</v>
@@ -3665,7 +3665,7 @@
         <v>134</v>
       </c>
       <c r="H93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I93" t="s">
         <v>47</v>
@@ -3700,7 +3700,7 @@
         <v>135</v>
       </c>
       <c r="H94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I94" t="s">
         <v>47</v>
@@ -3735,7 +3735,7 @@
         <v>136</v>
       </c>
       <c r="H95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I95" t="s">
         <v>47</v>
@@ -3770,7 +3770,7 @@
         <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I96" t="s">
         <v>47</v>
@@ -3811,7 +3811,7 @@
         <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I98" t="s">
         <v>47</v>
@@ -3846,7 +3846,7 @@
         <v>56</v>
       </c>
       <c r="H99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I99" t="s">
         <v>47</v>
@@ -3881,7 +3881,7 @@
         <v>71</v>
       </c>
       <c r="H100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I100" t="s">
         <v>47</v>
@@ -3916,7 +3916,7 @@
         <v>137</v>
       </c>
       <c r="H101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I101" t="s">
         <v>47</v>
@@ -3951,7 +3951,7 @@
         <v>138</v>
       </c>
       <c r="H102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I102" t="s">
         <v>47</v>
@@ -3986,7 +3986,7 @@
         <v>139</v>
       </c>
       <c r="H103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I103" t="s">
         <v>47</v>
@@ -4021,7 +4021,7 @@
         <v>140</v>
       </c>
       <c r="H104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I104" t="s">
         <v>47</v>
@@ -4062,7 +4062,7 @@
         <v>42</v>
       </c>
       <c r="H106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I106" t="s">
         <v>47</v>
@@ -4097,7 +4097,7 @@
         <v>57</v>
       </c>
       <c r="H107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I107" t="s">
         <v>47</v>
@@ -4132,7 +4132,7 @@
         <v>72</v>
       </c>
       <c r="H108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I108" t="s">
         <v>47</v>

--- a/product/idc/tests/data/ip.xlsx
+++ b/product/idc/tests/data/ip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nie/projects/drupal/modules/neibers/product/idc/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AE77A-43EE-074C-8126-6F0BE41AA086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B2715-76F1-894F-8FCD-1C65A40D8536}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1520" windowWidth="27720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1420" windowWidth="27720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="157">
   <si>
     <t>192.168.1.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锐讯网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66.102.253.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,9 +486,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>已用</t>
-  </si>
-  <si>
     <t>空闲</t>
   </si>
   <si>
@@ -503,6 +496,15 @@
   </si>
   <si>
     <t>HardwareType</t>
+  </si>
+  <si>
+    <t>S1700-52R-2T2P-AC</t>
+  </si>
+  <si>
+    <t>S1700-24-AC</t>
+  </si>
+  <si>
+    <t>Switcher</t>
   </si>
 </sst>
 </file>
@@ -896,14 +898,14 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="38.1640625" customWidth="1"/>
     <col min="8" max="9" width="15.83203125" customWidth="1"/>
@@ -913,40 +915,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>148</v>
-      </c>
-      <c r="L1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -960,13 +962,13 @@
         <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -995,13 +997,13 @@
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1010,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -1030,13 +1032,13 @@
         <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1045,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
@@ -1065,13 +1067,13 @@
         <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1080,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
@@ -1100,13 +1102,13 @@
         <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1115,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
@@ -1135,13 +1137,13 @@
         <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1150,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
@@ -1170,13 +1172,13 @@
         <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1185,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K8" t="s">
         <v>4</v>
@@ -1205,13 +1207,13 @@
         <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1220,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K9" t="s">
         <v>4</v>
@@ -1240,13 +1242,13 @@
         <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -1255,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K10" t="s">
         <v>4</v>
@@ -1275,13 +1277,13 @@
         <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1290,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K11" t="s">
         <v>4</v>
@@ -1310,13 +1312,13 @@
         <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1325,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
         <v>4</v>
@@ -1345,13 +1347,13 @@
         <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
@@ -1360,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
         <v>4</v>
@@ -1380,13 +1382,13 @@
         <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
@@ -1395,7 +1397,7 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
         <v>4</v>
@@ -1415,13 +1417,13 @@
         <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
@@ -1430,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
         <v>4</v>
@@ -1450,13 +1452,13 @@
         <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
         <v>1</v>
@@ -1465,7 +1467,7 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
         <v>4</v>
@@ -1485,13 +1487,13 @@
         <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
@@ -1500,7 +1502,7 @@
         <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
@@ -1520,13 +1522,13 @@
         <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
         <v>1</v>
@@ -1535,7 +1537,7 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
         <v>4</v>
@@ -1555,13 +1557,13 @@
         <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
         <v>1</v>
@@ -1570,7 +1572,7 @@
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s">
         <v>4</v>
@@ -1590,13 +1592,13 @@
         <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
         <v>1</v>
@@ -1605,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s">
         <v>4</v>
@@ -1625,13 +1627,13 @@
         <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
         <v>1</v>
@@ -1640,7 +1642,7 @@
         <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s">
         <v>4</v>
@@ -1660,13 +1662,13 @@
         <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
@@ -1675,7 +1677,7 @@
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K22" t="s">
         <v>4</v>
@@ -1695,13 +1697,13 @@
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G23" t="s">
         <v>1</v>
@@ -1710,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K23" t="s">
         <v>4</v>
@@ -1730,13 +1732,13 @@
         <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
         <v>1</v>
@@ -1745,7 +1747,7 @@
         <v>26</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s">
         <v>4</v>
@@ -1765,13 +1767,13 @@
         <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G25" t="s">
         <v>1</v>
@@ -1780,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K25" t="s">
         <v>4</v>
@@ -1800,13 +1802,13 @@
         <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
         <v>1</v>
@@ -1815,7 +1817,7 @@
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K26" t="s">
         <v>4</v>
@@ -1847,13 +1849,13 @@
         <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
         <v>1</v>
@@ -1862,7 +1864,7 @@
         <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K29" t="s">
         <v>4</v>
@@ -1882,22 +1884,22 @@
         <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K30" t="s">
         <v>4</v>
@@ -1923,13 +1925,13 @@
         <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
         <v>1</v>
@@ -1938,7 +1940,7 @@
         <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K32" t="s">
         <v>4</v>
@@ -1958,22 +1960,22 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
         <v>59</v>
       </c>
-      <c r="H33" t="s">
-        <v>60</v>
-      </c>
       <c r="I33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K33" t="s">
         <v>4</v>
@@ -1999,13 +2001,13 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G35" t="s">
         <v>1</v>
@@ -2014,7 +2016,7 @@
         <v>31</v>
       </c>
       <c r="I35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K35" t="s">
         <v>4</v>
@@ -2034,22 +2036,22 @@
         <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K36" t="s">
         <v>4</v>
@@ -2075,13 +2077,13 @@
         <v>203</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G38" t="s">
         <v>1</v>
@@ -2090,7 +2092,7 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K38" t="s">
         <v>4</v>
@@ -2110,22 +2112,22 @@
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K39" t="s">
         <v>4</v>
@@ -2151,13 +2153,13 @@
         <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G41" t="s">
         <v>1</v>
@@ -2166,7 +2168,7 @@
         <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K41" t="s">
         <v>4</v>
@@ -2186,22 +2188,22 @@
         <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K42" t="s">
         <v>4</v>
@@ -2227,13 +2229,13 @@
         <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G44" t="s">
         <v>1</v>
@@ -2242,10 +2244,7 @@
         <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>151</v>
-      </c>
-      <c r="J44" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K44" t="s">
         <v>4</v>
@@ -2265,25 +2264,22 @@
         <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>151</v>
-      </c>
-      <c r="J45" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K45" t="s">
         <v>4</v>
@@ -2303,25 +2299,22 @@
         <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I46" t="s">
-        <v>151</v>
-      </c>
-      <c r="J46" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K46" t="s">
         <v>4</v>
@@ -2341,25 +2334,22 @@
         <v>205</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I47" t="s">
-        <v>151</v>
-      </c>
-      <c r="J47" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K47" t="s">
         <v>4</v>
@@ -2379,25 +2369,22 @@
         <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I48" t="s">
-        <v>151</v>
-      </c>
-      <c r="J48" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K48" t="s">
         <v>4</v>
@@ -2417,25 +2404,22 @@
         <v>207</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J49" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K49" t="s">
         <v>4</v>
@@ -2455,25 +2439,22 @@
         <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>151</v>
-      </c>
-      <c r="J50" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s">
         <v>4</v>
@@ -2499,13 +2480,13 @@
         <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
         <v>1</v>
@@ -2514,10 +2495,7 @@
         <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>151</v>
-      </c>
-      <c r="J52" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K52" t="s">
         <v>4</v>
@@ -2537,25 +2515,22 @@
         <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" t="s">
         <v>49</v>
       </c>
-      <c r="H53" t="s">
-        <v>50</v>
-      </c>
       <c r="I53" t="s">
-        <v>151</v>
-      </c>
-      <c r="J53" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K53" t="s">
         <v>4</v>
@@ -2575,25 +2550,22 @@
         <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I54" t="s">
-        <v>151</v>
-      </c>
-      <c r="J54" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K54" t="s">
         <v>4</v>
@@ -2613,25 +2585,22 @@
         <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I55" t="s">
-        <v>151</v>
-      </c>
-      <c r="J55" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K55" t="s">
         <v>4</v>
@@ -2651,25 +2620,22 @@
         <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
-      </c>
-      <c r="J56" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K56" t="s">
         <v>4</v>
@@ -2689,25 +2655,22 @@
         <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
-      </c>
-      <c r="J57" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s">
         <v>4</v>
@@ -2727,25 +2690,22 @@
         <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I58" t="s">
-        <v>151</v>
-      </c>
-      <c r="J58" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K58" t="s">
         <v>4</v>
@@ -2765,25 +2725,22 @@
         <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I59" t="s">
-        <v>151</v>
-      </c>
-      <c r="J59" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K59" t="s">
         <v>4</v>
@@ -2809,13 +2766,13 @@
         <v>203</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G61" t="s">
         <v>1</v>
@@ -2824,10 +2781,7 @@
         <v>36</v>
       </c>
       <c r="I61" t="s">
-        <v>151</v>
-      </c>
-      <c r="J61" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K61" t="s">
         <v>4</v>
@@ -2847,25 +2801,22 @@
         <v>198</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I62" t="s">
-        <v>151</v>
-      </c>
-      <c r="J62" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K62" t="s">
         <v>4</v>
@@ -2885,25 +2836,22 @@
         <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I63" t="s">
-        <v>151</v>
-      </c>
-      <c r="J63" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K63" t="s">
         <v>4</v>
@@ -2923,25 +2871,22 @@
         <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" t="s">
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I64" t="s">
-        <v>151</v>
-      </c>
-      <c r="J64" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K64" t="s">
         <v>4</v>
@@ -2961,25 +2906,22 @@
         <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I65" t="s">
-        <v>151</v>
-      </c>
-      <c r="J65" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K65" t="s">
         <v>4</v>
@@ -2999,25 +2941,22 @@
         <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I66" t="s">
-        <v>151</v>
-      </c>
-      <c r="J66" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K66" t="s">
         <v>4</v>
@@ -3037,25 +2976,22 @@
         <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" t="s">
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s">
-        <v>151</v>
-      </c>
-      <c r="J67" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K67" t="s">
         <v>4</v>
@@ -3075,25 +3011,22 @@
         <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F68" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I68" t="s">
-        <v>151</v>
-      </c>
-      <c r="J68" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K68" t="s">
         <v>4</v>
@@ -3119,13 +3052,13 @@
         <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G70" t="s">
         <v>1</v>
@@ -3134,10 +3067,7 @@
         <v>37</v>
       </c>
       <c r="I70" t="s">
-        <v>151</v>
-      </c>
-      <c r="J70" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K70" t="s">
         <v>4</v>
@@ -3157,25 +3087,22 @@
         <v>203</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E71" t="s">
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I71" t="s">
-        <v>151</v>
-      </c>
-      <c r="J71" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K71" t="s">
         <v>4</v>
@@ -3195,25 +3122,22 @@
         <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I72" t="s">
-        <v>151</v>
-      </c>
-      <c r="J72" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K72" t="s">
         <v>4</v>
@@ -3233,25 +3157,22 @@
         <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I73" t="s">
-        <v>151</v>
-      </c>
-      <c r="J73" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K73" t="s">
         <v>4</v>
@@ -3271,25 +3192,22 @@
         <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E74" t="s">
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>151</v>
-      </c>
-      <c r="J74" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K74" t="s">
         <v>4</v>
@@ -3309,25 +3227,22 @@
         <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E75" t="s">
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>151</v>
-      </c>
-      <c r="J75" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K75" t="s">
         <v>4</v>
@@ -3347,25 +3262,22 @@
         <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I76" t="s">
-        <v>151</v>
-      </c>
-      <c r="J76" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K76" t="s">
         <v>4</v>
@@ -3391,13 +3303,13 @@
         <v>203</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
         <v>1</v>
@@ -3406,10 +3318,7 @@
         <v>38</v>
       </c>
       <c r="I78" t="s">
-        <v>151</v>
-      </c>
-      <c r="J78" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K78" t="s">
         <v>4</v>
@@ -3429,25 +3338,22 @@
         <v>203</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I79" t="s">
-        <v>151</v>
-      </c>
-      <c r="J79" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K79" t="s">
         <v>4</v>
@@ -3467,25 +3373,22 @@
         <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I80" t="s">
-        <v>151</v>
-      </c>
-      <c r="J80" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K80" t="s">
         <v>4</v>
@@ -3505,25 +3408,22 @@
         <v>203</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I81" t="s">
-        <v>151</v>
-      </c>
-      <c r="J81" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K81" t="s">
         <v>4</v>
@@ -3543,25 +3443,22 @@
         <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I82" t="s">
-        <v>151</v>
-      </c>
-      <c r="J82" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K82" t="s">
         <v>4</v>
@@ -3581,25 +3478,22 @@
         <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I83" t="s">
-        <v>151</v>
-      </c>
-      <c r="J83" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K83" t="s">
         <v>4</v>
@@ -3619,25 +3513,22 @@
         <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I84" t="s">
-        <v>151</v>
-      </c>
-      <c r="J84" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K84" t="s">
         <v>4</v>
@@ -3663,13 +3554,13 @@
         <v>203</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G86" t="s">
         <v>1</v>
@@ -3678,10 +3569,7 @@
         <v>39</v>
       </c>
       <c r="I86" t="s">
-        <v>151</v>
-      </c>
-      <c r="J86" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K86" t="s">
         <v>4</v>
@@ -3701,25 +3589,22 @@
         <v>203</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I87" t="s">
-        <v>151</v>
-      </c>
-      <c r="J87" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K87" t="s">
         <v>4</v>
@@ -3739,25 +3624,22 @@
         <v>203</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I88" t="s">
-        <v>151</v>
-      </c>
-      <c r="J88" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K88" t="s">
         <v>4</v>
@@ -3783,13 +3665,13 @@
         <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G90" t="s">
         <v>1</v>
@@ -3798,10 +3680,7 @@
         <v>40</v>
       </c>
       <c r="I90" t="s">
-        <v>151</v>
-      </c>
-      <c r="J90" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K90" t="s">
         <v>4</v>
@@ -3821,25 +3700,22 @@
         <v>203</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I91" t="s">
-        <v>151</v>
-      </c>
-      <c r="J91" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K91" t="s">
         <v>4</v>
@@ -3859,25 +3735,22 @@
         <v>204</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I92" t="s">
-        <v>151</v>
-      </c>
-      <c r="J92" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K92" t="s">
         <v>4</v>
@@ -3897,25 +3770,22 @@
         <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
-        <v>151</v>
-      </c>
-      <c r="J93" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K93" t="s">
         <v>4</v>
@@ -3935,25 +3805,22 @@
         <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I94" t="s">
-        <v>151</v>
-      </c>
-      <c r="J94" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K94" t="s">
         <v>4</v>
@@ -3973,25 +3840,22 @@
         <v>207</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I95" t="s">
-        <v>151</v>
-      </c>
-      <c r="J95" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K95" t="s">
         <v>4</v>
@@ -4011,25 +3875,22 @@
         <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F96" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I96" t="s">
-        <v>151</v>
-      </c>
-      <c r="J96" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K96" t="s">
         <v>4</v>
@@ -4055,13 +3916,13 @@
         <v>203</v>
       </c>
       <c r="D98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E98" t="s">
         <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G98" t="s">
         <v>1</v>
@@ -4070,10 +3931,7 @@
         <v>41</v>
       </c>
       <c r="I98" t="s">
-        <v>151</v>
-      </c>
-      <c r="J98" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K98" t="s">
         <v>4</v>
@@ -4093,25 +3951,22 @@
         <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E99" t="s">
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I99" t="s">
-        <v>151</v>
-      </c>
-      <c r="J99" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K99" t="s">
         <v>4</v>
@@ -4131,25 +3986,22 @@
         <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="F100" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I100" t="s">
-        <v>151</v>
-      </c>
-      <c r="J100" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K100" t="s">
         <v>4</v>
@@ -4169,25 +4021,22 @@
         <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I101" t="s">
-        <v>151</v>
-      </c>
-      <c r="J101" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K101" t="s">
         <v>4</v>
@@ -4207,25 +4056,22 @@
         <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E102" t="s">
         <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I102" t="s">
-        <v>151</v>
-      </c>
-      <c r="J102" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K102" t="s">
         <v>4</v>
@@ -4245,25 +4091,22 @@
         <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E103" t="s">
         <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I103" t="s">
-        <v>151</v>
-      </c>
-      <c r="J103" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K103" t="s">
         <v>4</v>
@@ -4283,25 +4126,22 @@
         <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E104" t="s">
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I104" t="s">
-        <v>151</v>
-      </c>
-      <c r="J104" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K104" t="s">
         <v>4</v>
@@ -4327,13 +4167,13 @@
         <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E106" t="s">
         <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G106" t="s">
         <v>1</v>
@@ -4342,10 +4182,7 @@
         <v>42</v>
       </c>
       <c r="I106" t="s">
-        <v>151</v>
-      </c>
-      <c r="J106" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K106" t="s">
         <v>4</v>
@@ -4365,25 +4202,22 @@
         <v>203</v>
       </c>
       <c r="D107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E107" t="s">
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I107" t="s">
-        <v>151</v>
-      </c>
-      <c r="J107" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K107" t="s">
         <v>4</v>
@@ -4403,25 +4237,22 @@
         <v>203</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="F108" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I108" t="s">
-        <v>151</v>
-      </c>
-      <c r="J108" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K108" t="s">
         <v>4</v>

--- a/product/idc/tests/data/ip.xlsx
+++ b/product/idc/tests/data/ip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nie/projects/drupal/modules/neibers/product/idc/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B2715-76F1-894F-8FCD-1C65A40D8536}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C079CC-E79F-F345-B2AB-97AE49256DD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="1420" windowWidth="27720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>66.102.253.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,6 +501,9 @@
   </si>
   <si>
     <t>Switcher</t>
+  </si>
+  <si>
+    <t>66.102.253.09</t>
   </si>
 </sst>
 </file>
@@ -897,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -915,40 +914,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
-      </c>
-      <c r="L1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -962,13 +961,13 @@
         <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -977,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -997,13 +996,13 @@
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -1012,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -1032,13 +1031,13 @@
         <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -1047,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
@@ -1067,13 +1066,13 @@
         <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1082,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
@@ -1102,13 +1101,13 @@
         <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1117,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
@@ -1137,13 +1136,13 @@
         <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1152,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
@@ -1172,13 +1171,13 @@
         <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -1187,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K8" t="s">
         <v>4</v>
@@ -1207,13 +1206,13 @@
         <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1222,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
         <v>4</v>
@@ -1242,13 +1241,13 @@
         <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -1257,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K10" t="s">
         <v>4</v>
@@ -1277,13 +1276,13 @@
         <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1292,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s">
         <v>4</v>
@@ -1312,13 +1311,13 @@
         <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -1327,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
         <v>4</v>
@@ -1347,13 +1346,13 @@
         <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
@@ -1362,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
         <v>4</v>
@@ -1382,13 +1381,13 @@
         <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
@@ -1397,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
         <v>4</v>
@@ -1417,13 +1416,13 @@
         <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
@@ -1432,7 +1431,7 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
         <v>4</v>
@@ -1452,13 +1451,13 @@
         <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>1</v>
@@ -1467,7 +1466,7 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K16" t="s">
         <v>4</v>
@@ -1487,13 +1486,13 @@
         <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
@@ -1502,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
@@ -1522,13 +1521,13 @@
         <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
         <v>1</v>
@@ -1537,7 +1536,7 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s">
         <v>4</v>
@@ -1557,13 +1556,13 @@
         <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
         <v>1</v>
@@ -1572,7 +1571,7 @@
         <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
         <v>4</v>
@@ -1592,13 +1591,13 @@
         <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
         <v>1</v>
@@ -1607,7 +1606,7 @@
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s">
         <v>4</v>
@@ -1627,13 +1626,13 @@
         <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
         <v>1</v>
@@ -1642,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s">
         <v>4</v>
@@ -1662,13 +1661,13 @@
         <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
@@ -1677,7 +1676,7 @@
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s">
         <v>4</v>
@@ -1697,13 +1696,13 @@
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
         <v>1</v>
@@ -1712,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s">
         <v>4</v>
@@ -1732,13 +1731,13 @@
         <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" t="s">
         <v>1</v>
@@ -1747,7 +1746,7 @@
         <v>26</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s">
         <v>4</v>
@@ -1767,13 +1766,13 @@
         <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
         <v>1</v>
@@ -1782,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K25" t="s">
         <v>4</v>
@@ -1802,13 +1801,13 @@
         <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
         <v>1</v>
@@ -1817,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s">
         <v>4</v>
@@ -1849,13 +1848,13 @@
         <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
         <v>1</v>
@@ -1864,7 +1863,7 @@
         <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s">
         <v>4</v>
@@ -1884,22 +1883,22 @@
         <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s">
         <v>4</v>
@@ -1925,13 +1924,13 @@
         <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32" t="s">
         <v>1</v>
@@ -1940,7 +1939,7 @@
         <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s">
         <v>4</v>
@@ -1960,22 +1959,22 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s">
         <v>58</v>
       </c>
-      <c r="H33" t="s">
-        <v>59</v>
-      </c>
       <c r="I33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K33" t="s">
         <v>4</v>
@@ -2001,13 +2000,13 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
         <v>1</v>
@@ -2016,7 +2015,7 @@
         <v>31</v>
       </c>
       <c r="I35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s">
         <v>4</v>
@@ -2036,22 +2035,22 @@
         <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s">
         <v>4</v>
@@ -2077,13 +2076,13 @@
         <v>203</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G38" t="s">
         <v>1</v>
@@ -2092,7 +2091,7 @@
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K38" t="s">
         <v>4</v>
@@ -2112,22 +2111,22 @@
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K39" t="s">
         <v>4</v>
@@ -2153,13 +2152,13 @@
         <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G41" t="s">
         <v>1</v>
@@ -2168,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s">
         <v>4</v>
@@ -2188,22 +2187,22 @@
         <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K42" t="s">
         <v>4</v>
@@ -2229,13 +2228,13 @@
         <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G44" t="s">
         <v>1</v>
@@ -2244,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K44" t="s">
         <v>4</v>
@@ -2264,22 +2263,22 @@
         <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K45" t="s">
         <v>4</v>
@@ -2299,22 +2298,22 @@
         <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s">
         <v>4</v>
@@ -2334,22 +2333,22 @@
         <v>205</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s">
         <v>4</v>
@@ -2369,22 +2368,22 @@
         <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s">
         <v>4</v>
@@ -2404,22 +2403,22 @@
         <v>207</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" t="s">
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K49" t="s">
         <v>4</v>
@@ -2439,22 +2438,22 @@
         <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K50" t="s">
         <v>4</v>
@@ -2480,13 +2479,13 @@
         <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G52" t="s">
         <v>1</v>
@@ -2495,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K52" t="s">
         <v>4</v>
@@ -2515,22 +2514,22 @@
         <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" t="s">
         <v>48</v>
       </c>
-      <c r="H53" t="s">
-        <v>49</v>
-      </c>
       <c r="I53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s">
         <v>4</v>
@@ -2550,22 +2549,22 @@
         <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K54" t="s">
         <v>4</v>
@@ -2585,22 +2584,22 @@
         <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K55" t="s">
         <v>4</v>
@@ -2620,22 +2619,22 @@
         <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K56" t="s">
         <v>4</v>
@@ -2655,22 +2654,22 @@
         <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s">
         <v>4</v>
@@ -2690,22 +2689,22 @@
         <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K58" t="s">
         <v>4</v>
@@ -2725,22 +2724,22 @@
         <v>203</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K59" t="s">
         <v>4</v>
@@ -2766,13 +2765,13 @@
         <v>203</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G61" t="s">
         <v>1</v>
@@ -2781,7 +2780,7 @@
         <v>36</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" t="s">
         <v>4</v>
@@ -2801,22 +2800,22 @@
         <v>198</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K62" t="s">
         <v>4</v>
@@ -2836,22 +2835,22 @@
         <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K63" t="s">
         <v>4</v>
@@ -2871,22 +2870,22 @@
         <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K64" t="s">
         <v>4</v>
@@ -2906,22 +2905,22 @@
         <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K65" t="s">
         <v>4</v>
@@ -2941,22 +2940,22 @@
         <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E66" t="s">
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K66" t="s">
         <v>4</v>
@@ -2976,22 +2975,22 @@
         <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" t="s">
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K67" t="s">
         <v>4</v>
@@ -3011,22 +3010,22 @@
         <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K68" t="s">
         <v>4</v>
@@ -3052,13 +3051,13 @@
         <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E70" t="s">
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G70" t="s">
         <v>1</v>
@@ -3067,7 +3066,7 @@
         <v>37</v>
       </c>
       <c r="I70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K70" t="s">
         <v>4</v>
@@ -3087,22 +3086,22 @@
         <v>203</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E71" t="s">
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K71" t="s">
         <v>4</v>
@@ -3122,22 +3121,22 @@
         <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K72" t="s">
         <v>4</v>
@@ -3157,22 +3156,22 @@
         <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K73" t="s">
         <v>4</v>
@@ -3192,22 +3191,22 @@
         <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K74" t="s">
         <v>4</v>
@@ -3227,22 +3226,22 @@
         <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E75" t="s">
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K75" t="s">
         <v>4</v>
@@ -3262,22 +3261,22 @@
         <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K76" t="s">
         <v>4</v>
@@ -3303,13 +3302,13 @@
         <v>203</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G78" t="s">
         <v>1</v>
@@ -3318,7 +3317,7 @@
         <v>38</v>
       </c>
       <c r="I78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K78" t="s">
         <v>4</v>
@@ -3338,22 +3337,22 @@
         <v>203</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K79" t="s">
         <v>4</v>
@@ -3373,22 +3372,22 @@
         <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K80" t="s">
         <v>4</v>
@@ -3408,22 +3407,22 @@
         <v>203</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K81" t="s">
         <v>4</v>
@@ -3443,22 +3442,22 @@
         <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K82" t="s">
         <v>4</v>
@@ -3478,22 +3477,22 @@
         <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K83" t="s">
         <v>4</v>
@@ -3513,22 +3512,22 @@
         <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K84" t="s">
         <v>4</v>
@@ -3554,13 +3553,13 @@
         <v>203</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G86" t="s">
         <v>1</v>
@@ -3569,7 +3568,7 @@
         <v>39</v>
       </c>
       <c r="I86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K86" t="s">
         <v>4</v>
@@ -3589,22 +3588,22 @@
         <v>203</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K87" t="s">
         <v>4</v>
@@ -3624,22 +3623,22 @@
         <v>203</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K88" t="s">
         <v>4</v>
@@ -3665,13 +3664,13 @@
         <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G90" t="s">
         <v>1</v>
@@ -3680,7 +3679,7 @@
         <v>40</v>
       </c>
       <c r="I90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K90" t="s">
         <v>4</v>
@@ -3700,22 +3699,22 @@
         <v>203</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K91" t="s">
         <v>4</v>
@@ -3735,22 +3734,22 @@
         <v>204</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K92" t="s">
         <v>4</v>
@@ -3770,22 +3769,22 @@
         <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s">
         <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K93" t="s">
         <v>4</v>
@@ -3805,22 +3804,22 @@
         <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K94" t="s">
         <v>4</v>
@@ -3840,22 +3839,22 @@
         <v>207</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" t="s">
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K95" t="s">
         <v>4</v>
@@ -3875,22 +3874,22 @@
         <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K96" t="s">
         <v>4</v>
@@ -3916,13 +3915,13 @@
         <v>203</v>
       </c>
       <c r="D98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E98" t="s">
         <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G98" t="s">
         <v>1</v>
@@ -3931,7 +3930,7 @@
         <v>41</v>
       </c>
       <c r="I98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K98" t="s">
         <v>4</v>
@@ -3951,22 +3950,22 @@
         <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E99" t="s">
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K99" t="s">
         <v>4</v>
@@ -3986,22 +3985,22 @@
         <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K100" t="s">
         <v>4</v>
@@ -4021,22 +4020,22 @@
         <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E101" t="s">
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K101" t="s">
         <v>4</v>
@@ -4056,22 +4055,22 @@
         <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E102" t="s">
         <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K102" t="s">
         <v>4</v>
@@ -4091,22 +4090,22 @@
         <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E103" t="s">
         <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K103" t="s">
         <v>4</v>
@@ -4126,22 +4125,22 @@
         <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E104" t="s">
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K104" t="s">
         <v>4</v>
@@ -4167,13 +4166,13 @@
         <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s">
         <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G106" t="s">
         <v>1</v>
@@ -4182,7 +4181,7 @@
         <v>42</v>
       </c>
       <c r="I106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K106" t="s">
         <v>4</v>
@@ -4202,22 +4201,22 @@
         <v>203</v>
       </c>
       <c r="D107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E107" t="s">
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K107" t="s">
         <v>4</v>
@@ -4237,22 +4236,22 @@
         <v>203</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E108" t="s">
+        <v>154</v>
+      </c>
+      <c r="F108" t="s">
         <v>155</v>
       </c>
-      <c r="F108" t="s">
-        <v>156</v>
-      </c>
       <c r="G108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K108" t="s">
         <v>4</v>

--- a/product/idc/tests/data/ip.xlsx
+++ b/product/idc/tests/data/ip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nie/projects/drupal/modules/neibers/product/idc/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C74460-DD85-D541-B1C0-8D80E84A08BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0AE77A-43EE-074C-8126-6F0BE41AA086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="1520" windowWidth="27720" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="156">
   <si>
     <t>192.168.1.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>Hardware</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>HardwareType</t>
   </si>
 </sst>
 </file>
@@ -887,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -898,13 +904,14 @@
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" customWidth="1"/>
-    <col min="7" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" customWidth="1"/>
+    <col min="8" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -921,25 +928,28 @@
         <v>153</v>
       </c>
       <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
         <v>145</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>146</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>150</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>147</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>148</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,22 +966,25 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>152</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1">
         <v>43545</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -988,22 +1001,25 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>152</v>
       </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
         <v>43546</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1020,22 +1036,25 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>152</v>
       </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1">
         <v>43547</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1052,22 +1071,25 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>152</v>
       </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
         <v>43548</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1084,22 +1106,25 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>152</v>
       </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
         <v>43549</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1116,22 +1141,25 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>152</v>
       </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
         <v>43550</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1148,22 +1176,25 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" t="s">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>152</v>
       </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
         <v>43551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1180,22 +1211,25 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" t="s">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>152</v>
       </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
         <v>43552</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1212,22 +1246,25 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>152</v>
       </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
         <v>43553</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1244,22 +1281,25 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>152</v>
       </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
         <v>43554</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1276,22 +1316,25 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>152</v>
       </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
         <v>43555</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1308,22 +1351,25 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="s">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>152</v>
       </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
         <v>43556</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1340,22 +1386,25 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>152</v>
       </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
         <v>43557</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1372,22 +1421,25 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>152</v>
       </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1">
         <v>43558</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1404,22 +1456,25 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>18</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>152</v>
       </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
         <v>43559</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1436,22 +1491,25 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>152</v>
       </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="1">
         <v>43560</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1468,22 +1526,25 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>152</v>
       </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="1">
         <v>43561</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1500,22 +1561,25 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>152</v>
       </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1">
         <v>43562</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1532,22 +1596,25 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>152</v>
       </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1">
         <v>43563</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1564,22 +1631,25 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>23</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>152</v>
       </c>
-      <c r="J21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
         <v>43564</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1596,22 +1666,25 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>24</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>152</v>
       </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1">
         <v>43565</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1628,22 +1701,25 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>25</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>152</v>
       </c>
-      <c r="J23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1">
         <v>43566</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1660,22 +1736,25 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" t="s">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>26</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>152</v>
       </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1">
         <v>43567</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1692,22 +1771,25 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>152</v>
       </c>
-      <c r="J25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1">
         <v>43568</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1724,34 +1806,37 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" t="s">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>28</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>152</v>
       </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="K26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1">
         <v>43569</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1768,22 +1853,25 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>152</v>
       </c>
-      <c r="J29" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="K29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1">
         <v>43570</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1800,28 +1888,31 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="s">
         <v>59</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>58</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>152</v>
       </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="K30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="1">
         <v>43593</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1838,22 +1929,25 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" t="s">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>30</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>152</v>
       </c>
-      <c r="J32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="K32" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1">
         <v>43571</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1870,28 +1964,31 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
         <v>59</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>60</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>152</v>
       </c>
-      <c r="J33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="K33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1">
         <v>43594</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1908,22 +2005,25 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>31</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>152</v>
       </c>
-      <c r="J35" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="1">
+      <c r="K35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1">
         <v>43572</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1940,28 +2040,31 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" t="s">
         <v>59</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>61</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>152</v>
       </c>
-      <c r="J36" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="1">
         <v>43595</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1978,22 +2081,25 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" t="s">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>32</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>152</v>
       </c>
-      <c r="J38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
         <v>43573</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2010,28 +2116,31 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" t="s">
         <v>59</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>152</v>
       </c>
-      <c r="J39" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="1">
+      <c r="K39" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="1">
         <v>43596</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2048,22 +2157,25 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" t="s">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>33</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>152</v>
       </c>
-      <c r="J41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="K41" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="1">
         <v>43574</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2080,28 +2192,31 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" t="s">
         <v>59</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>63</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>152</v>
       </c>
-      <c r="J42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="1">
         <v>43597</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -2118,25 +2233,28 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" t="s">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>34</v>
       </c>
-      <c r="H44" t="s">
-        <v>151</v>
-      </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J44" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="1">
+        <v>47</v>
+      </c>
+      <c r="K44" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="1">
         <v>43575</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -2153,25 +2271,28 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" t="s">
         <v>49</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>48</v>
       </c>
-      <c r="H45" t="s">
-        <v>151</v>
-      </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J45" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="1">
+        <v>47</v>
+      </c>
+      <c r="K45" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="1">
         <v>43584</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -2188,25 +2309,28 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" t="s">
         <v>49</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>112</v>
       </c>
-      <c r="H46" t="s">
-        <v>151</v>
-      </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J46" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="1">
+        <v>47</v>
+      </c>
+      <c r="K46" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="1">
         <v>43531</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -2223,25 +2347,28 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" t="s">
         <v>49</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>113</v>
       </c>
-      <c r="H47" t="s">
-        <v>151</v>
-      </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J47" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="1">
+        <v>47</v>
+      </c>
+      <c r="K47" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="1">
         <v>43532</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -2258,25 +2385,28 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" t="s">
         <v>49</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>114</v>
       </c>
-      <c r="H48" t="s">
-        <v>151</v>
-      </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J48" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="1">
+        <v>47</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="1">
         <v>43533</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2293,25 +2423,28 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" t="s">
         <v>49</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>115</v>
       </c>
-      <c r="H49" t="s">
-        <v>151</v>
-      </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J49" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="1">
+        <v>47</v>
+      </c>
+      <c r="K49" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="1">
         <v>43534</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2328,31 +2461,34 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" t="s">
         <v>59</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>64</v>
       </c>
-      <c r="H50" t="s">
-        <v>151</v>
-      </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J50" t="s">
-        <v>4</v>
-      </c>
-      <c r="K50" s="1">
+        <v>47</v>
+      </c>
+      <c r="K50" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="1">
         <v>43535</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2369,25 +2505,28 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" t="s">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>35</v>
       </c>
-      <c r="H52" t="s">
-        <v>151</v>
-      </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J52" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="1">
+        <v>47</v>
+      </c>
+      <c r="K52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="1">
         <v>43536</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2404,25 +2543,28 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" t="s">
         <v>49</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>50</v>
       </c>
-      <c r="H53" t="s">
-        <v>151</v>
-      </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J53" t="s">
-        <v>4</v>
-      </c>
-      <c r="K53" s="1">
+        <v>47</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" s="1">
         <v>43537</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -2439,25 +2581,28 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" t="s">
         <v>49</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>116</v>
       </c>
-      <c r="H54" t="s">
-        <v>151</v>
-      </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J54" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="1">
+        <v>47</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="1">
         <v>43538</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -2474,25 +2619,28 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" t="s">
         <v>49</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>117</v>
       </c>
-      <c r="H55" t="s">
-        <v>151</v>
-      </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J55" t="s">
-        <v>4</v>
-      </c>
-      <c r="K55" s="1">
+        <v>47</v>
+      </c>
+      <c r="K55" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1">
         <v>43539</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -2509,25 +2657,28 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" t="s">
         <v>49</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>118</v>
       </c>
-      <c r="H56" t="s">
-        <v>151</v>
-      </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
-        <v>4</v>
-      </c>
-      <c r="K56" s="1">
+        <v>47</v>
+      </c>
+      <c r="K56" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" s="1">
         <v>43540</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -2544,25 +2695,28 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" t="s">
         <v>49</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>119</v>
       </c>
-      <c r="H57" t="s">
-        <v>151</v>
-      </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J57" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="1">
+        <v>47</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="1">
         <v>43541</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -2579,25 +2733,28 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" t="s">
         <v>49</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>120</v>
       </c>
-      <c r="H58" t="s">
-        <v>151</v>
-      </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J58" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="1">
+        <v>47</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="1">
         <v>43542</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -2614,31 +2771,34 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59" t="s">
         <v>59</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>65</v>
       </c>
-      <c r="H59" t="s">
-        <v>151</v>
-      </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J59" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="1">
+        <v>47</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="1">
         <v>43543</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -2655,25 +2815,28 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" t="s">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>36</v>
       </c>
-      <c r="H61" t="s">
-        <v>151</v>
-      </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J61" t="s">
-        <v>4</v>
-      </c>
-      <c r="K61" s="1">
+        <v>47</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" s="1">
         <v>43544</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -2690,25 +2853,28 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" t="s">
         <v>49</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>121</v>
       </c>
-      <c r="H62" t="s">
-        <v>151</v>
-      </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J62" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="1">
+        <v>47</v>
+      </c>
+      <c r="K62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="1">
         <v>43545</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -2725,25 +2891,28 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" t="s">
         <v>49</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>122</v>
       </c>
-      <c r="H63" t="s">
-        <v>151</v>
-      </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J63" t="s">
-        <v>4</v>
-      </c>
-      <c r="K63" s="1">
+        <v>47</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L63" s="1">
         <v>43546</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -2760,25 +2929,28 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" t="s">
         <v>49</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>123</v>
       </c>
-      <c r="H64" t="s">
-        <v>151</v>
-      </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J64" t="s">
-        <v>4</v>
-      </c>
-      <c r="K64" s="1">
+        <v>47</v>
+      </c>
+      <c r="K64" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" s="1">
         <v>43547</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -2795,25 +2967,28 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" t="s">
         <v>49</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>124</v>
       </c>
-      <c r="H65" t="s">
-        <v>151</v>
-      </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J65" t="s">
-        <v>4</v>
-      </c>
-      <c r="K65" s="1">
+        <v>47</v>
+      </c>
+      <c r="K65" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" s="1">
         <v>43548</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -2830,25 +3005,28 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" t="s">
         <v>49</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>125</v>
       </c>
-      <c r="H66" t="s">
-        <v>151</v>
-      </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="1">
+        <v>47</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="1">
         <v>43549</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -2865,25 +3043,28 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" t="s">
         <v>49</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>51</v>
       </c>
-      <c r="H67" t="s">
-        <v>151</v>
-      </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J67" t="s">
-        <v>4</v>
-      </c>
-      <c r="K67" s="1">
+        <v>47</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" s="1">
         <v>43550</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -2900,31 +3081,34 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" t="s">
         <v>59</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>66</v>
       </c>
-      <c r="H68" t="s">
-        <v>151</v>
-      </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J68" t="s">
-        <v>4</v>
-      </c>
-      <c r="K68" s="1">
+        <v>47</v>
+      </c>
+      <c r="K68" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" s="1">
         <v>43551</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -2941,25 +3125,28 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
+        <v>154</v>
+      </c>
+      <c r="G70" t="s">
         <v>1</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>37</v>
       </c>
-      <c r="H70" t="s">
-        <v>151</v>
-      </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J70" t="s">
-        <v>4</v>
-      </c>
-      <c r="K70" s="1">
+        <v>47</v>
+      </c>
+      <c r="K70" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" s="1">
         <v>43552</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -2976,25 +3163,28 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" t="s">
         <v>49</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>52</v>
       </c>
-      <c r="H71" t="s">
-        <v>151</v>
-      </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J71" t="s">
-        <v>4</v>
-      </c>
-      <c r="K71" s="1">
+        <v>47</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" s="1">
         <v>43553</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -3011,25 +3201,28 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" t="s">
         <v>49</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>126</v>
       </c>
-      <c r="H72" t="s">
-        <v>151</v>
-      </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J72" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="1">
+        <v>47</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="1">
         <v>43554</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -3046,25 +3239,28 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
         <v>49</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>127</v>
       </c>
-      <c r="H73" t="s">
-        <v>151</v>
-      </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J73" t="s">
-        <v>4</v>
-      </c>
-      <c r="K73" s="1">
+        <v>47</v>
+      </c>
+      <c r="K73" t="s">
+        <v>4</v>
+      </c>
+      <c r="L73" s="1">
         <v>43555</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -3081,25 +3277,28 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" t="s">
         <v>49</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>128</v>
       </c>
-      <c r="H74" t="s">
-        <v>151</v>
-      </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J74" t="s">
-        <v>4</v>
-      </c>
-      <c r="K74" s="1">
+        <v>47</v>
+      </c>
+      <c r="K74" t="s">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1">
         <v>43556</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -3116,25 +3315,28 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G75" t="s">
         <v>49</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>129</v>
       </c>
-      <c r="H75" t="s">
-        <v>151</v>
-      </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J75" t="s">
-        <v>4</v>
-      </c>
-      <c r="K75" s="1">
+        <v>47</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4</v>
+      </c>
+      <c r="L75" s="1">
         <v>43557</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -3151,31 +3353,34 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
+        <v>154</v>
+      </c>
+      <c r="G76" t="s">
         <v>59</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>67</v>
       </c>
-      <c r="H76" t="s">
-        <v>151</v>
-      </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J76" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="1">
+        <v>47</v>
+      </c>
+      <c r="K76" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="1">
         <v>43558</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3192,25 +3397,28 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
+        <v>154</v>
+      </c>
+      <c r="G78" t="s">
         <v>1</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>38</v>
       </c>
-      <c r="H78" t="s">
-        <v>151</v>
-      </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J78" t="s">
-        <v>4</v>
-      </c>
-      <c r="K78" s="1">
+        <v>47</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4</v>
+      </c>
+      <c r="L78" s="1">
         <v>43559</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -3227,25 +3435,28 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" t="s">
         <v>49</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>53</v>
       </c>
-      <c r="H79" t="s">
-        <v>151</v>
-      </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J79" t="s">
-        <v>4</v>
-      </c>
-      <c r="K79" s="1">
+        <v>47</v>
+      </c>
+      <c r="K79" t="s">
+        <v>4</v>
+      </c>
+      <c r="L79" s="1">
         <v>43560</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3262,25 +3473,28 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
+        <v>154</v>
+      </c>
+      <c r="G80" t="s">
         <v>59</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>68</v>
       </c>
-      <c r="H80" t="s">
-        <v>151</v>
-      </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J80" t="s">
-        <v>4</v>
-      </c>
-      <c r="K80" s="1">
+        <v>47</v>
+      </c>
+      <c r="K80" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" s="1">
         <v>43561</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -3297,25 +3511,28 @@
         <v>44</v>
       </c>
       <c r="F81" t="s">
+        <v>154</v>
+      </c>
+      <c r="G81" t="s">
         <v>49</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>129</v>
       </c>
-      <c r="H81" t="s">
-        <v>151</v>
-      </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J81" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="1">
+        <v>47</v>
+      </c>
+      <c r="K81" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="1">
         <v>43562</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -3332,25 +3549,28 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
+        <v>154</v>
+      </c>
+      <c r="G82" t="s">
         <v>49</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>130</v>
       </c>
-      <c r="H82" t="s">
-        <v>151</v>
-      </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J82" t="s">
-        <v>4</v>
-      </c>
-      <c r="K82" s="1">
+        <v>47</v>
+      </c>
+      <c r="K82" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82" s="1">
         <v>43563</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -3367,25 +3587,28 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
+        <v>154</v>
+      </c>
+      <c r="G83" t="s">
         <v>49</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>131</v>
       </c>
-      <c r="H83" t="s">
-        <v>151</v>
-      </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J83" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="1">
+        <v>47</v>
+      </c>
+      <c r="K83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="1">
         <v>43564</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -3402,31 +3625,34 @@
         <v>44</v>
       </c>
       <c r="F84" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" t="s">
         <v>49</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>132</v>
       </c>
-      <c r="H84" t="s">
-        <v>151</v>
-      </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J84" t="s">
-        <v>4</v>
-      </c>
-      <c r="K84" s="1">
+        <v>47</v>
+      </c>
+      <c r="K84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84" s="1">
         <v>43565</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -3443,25 +3669,28 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
+        <v>154</v>
+      </c>
+      <c r="G86" t="s">
         <v>1</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>39</v>
       </c>
-      <c r="H86" t="s">
-        <v>151</v>
-      </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J86" t="s">
-        <v>4</v>
-      </c>
-      <c r="K86" s="1">
+        <v>47</v>
+      </c>
+      <c r="K86" t="s">
+        <v>4</v>
+      </c>
+      <c r="L86" s="1">
         <v>43566</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -3478,25 +3707,28 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
+        <v>154</v>
+      </c>
+      <c r="G87" t="s">
         <v>49</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>54</v>
       </c>
-      <c r="H87" t="s">
-        <v>151</v>
-      </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J87" t="s">
-        <v>4</v>
-      </c>
-      <c r="K87" s="1">
+        <v>47</v>
+      </c>
+      <c r="K87" t="s">
+        <v>4</v>
+      </c>
+      <c r="L87" s="1">
         <v>43567</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -3513,31 +3745,34 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" t="s">
         <v>59</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>69</v>
       </c>
-      <c r="H88" t="s">
-        <v>151</v>
-      </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J88" t="s">
-        <v>4</v>
-      </c>
-      <c r="K88" s="1">
+        <v>47</v>
+      </c>
+      <c r="K88" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="1">
         <v>43568</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -3554,25 +3789,28 @@
         <v>44</v>
       </c>
       <c r="F90" t="s">
+        <v>154</v>
+      </c>
+      <c r="G90" t="s">
         <v>1</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>40</v>
       </c>
-      <c r="H90" t="s">
-        <v>151</v>
-      </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J90" t="s">
-        <v>4</v>
-      </c>
-      <c r="K90" s="1">
+        <v>47</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90" s="1">
         <v>43569</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -3589,25 +3827,28 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
+        <v>154</v>
+      </c>
+      <c r="G91" t="s">
         <v>49</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>55</v>
       </c>
-      <c r="H91" t="s">
-        <v>151</v>
-      </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J91" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="1">
+        <v>47</v>
+      </c>
+      <c r="K91" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="1">
         <v>43570</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -3624,25 +3865,28 @@
         <v>44</v>
       </c>
       <c r="F92" t="s">
+        <v>154</v>
+      </c>
+      <c r="G92" t="s">
         <v>49</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>133</v>
       </c>
-      <c r="H92" t="s">
-        <v>151</v>
-      </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J92" t="s">
-        <v>4</v>
-      </c>
-      <c r="K92" s="1">
+        <v>47</v>
+      </c>
+      <c r="K92" t="s">
+        <v>4</v>
+      </c>
+      <c r="L92" s="1">
         <v>43571</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -3659,25 +3903,28 @@
         <v>44</v>
       </c>
       <c r="F93" t="s">
+        <v>154</v>
+      </c>
+      <c r="G93" t="s">
         <v>49</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>134</v>
       </c>
-      <c r="H93" t="s">
-        <v>151</v>
-      </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J93" t="s">
-        <v>4</v>
-      </c>
-      <c r="K93" s="1">
+        <v>47</v>
+      </c>
+      <c r="K93" t="s">
+        <v>4</v>
+      </c>
+      <c r="L93" s="1">
         <v>43572</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>94</v>
       </c>
@@ -3694,25 +3941,28 @@
         <v>44</v>
       </c>
       <c r="F94" t="s">
+        <v>154</v>
+      </c>
+      <c r="G94" t="s">
         <v>49</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>135</v>
       </c>
-      <c r="H94" t="s">
-        <v>151</v>
-      </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J94" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="1">
+        <v>47</v>
+      </c>
+      <c r="K94" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="1">
         <v>43573</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -3729,25 +3979,28 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
+        <v>154</v>
+      </c>
+      <c r="G95" t="s">
         <v>49</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>136</v>
       </c>
-      <c r="H95" t="s">
-        <v>151</v>
-      </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J95" t="s">
-        <v>4</v>
-      </c>
-      <c r="K95" s="1">
+        <v>47</v>
+      </c>
+      <c r="K95" t="s">
+        <v>4</v>
+      </c>
+      <c r="L95" s="1">
         <v>43574</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -3764,31 +4017,34 @@
         <v>44</v>
       </c>
       <c r="F96" t="s">
+        <v>154</v>
+      </c>
+      <c r="G96" t="s">
         <v>59</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>70</v>
       </c>
-      <c r="H96" t="s">
-        <v>151</v>
-      </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J96" t="s">
-        <v>4</v>
-      </c>
-      <c r="K96" s="1">
+        <v>47</v>
+      </c>
+      <c r="K96" t="s">
+        <v>4</v>
+      </c>
+      <c r="L96" s="1">
         <v>43575</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -3805,25 +4061,28 @@
         <v>44</v>
       </c>
       <c r="F98" t="s">
+        <v>154</v>
+      </c>
+      <c r="G98" t="s">
         <v>1</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>41</v>
       </c>
-      <c r="H98" t="s">
-        <v>151</v>
-      </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J98" t="s">
-        <v>4</v>
-      </c>
-      <c r="K98" s="1">
+        <v>47</v>
+      </c>
+      <c r="K98" t="s">
+        <v>4</v>
+      </c>
+      <c r="L98" s="1">
         <v>43576</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -3840,25 +4099,28 @@
         <v>44</v>
       </c>
       <c r="F99" t="s">
+        <v>154</v>
+      </c>
+      <c r="G99" t="s">
         <v>49</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>56</v>
       </c>
-      <c r="H99" t="s">
-        <v>151</v>
-      </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J99" t="s">
-        <v>4</v>
-      </c>
-      <c r="K99" s="1">
+        <v>47</v>
+      </c>
+      <c r="K99" t="s">
+        <v>4</v>
+      </c>
+      <c r="L99" s="1">
         <v>43577</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -3875,25 +4137,28 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
+        <v>154</v>
+      </c>
+      <c r="G100" t="s">
         <v>59</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>71</v>
       </c>
-      <c r="H100" t="s">
-        <v>151</v>
-      </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J100" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="1">
+        <v>47</v>
+      </c>
+      <c r="K100" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="1">
         <v>43578</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -3910,25 +4175,28 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" t="s">
         <v>49</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>137</v>
       </c>
-      <c r="H101" t="s">
-        <v>151</v>
-      </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J101" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="1">
+        <v>47</v>
+      </c>
+      <c r="K101" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="1">
         <v>43579</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -3945,25 +4213,28 @@
         <v>44</v>
       </c>
       <c r="F102" t="s">
+        <v>154</v>
+      </c>
+      <c r="G102" t="s">
         <v>49</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>138</v>
       </c>
-      <c r="H102" t="s">
-        <v>151</v>
-      </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J102" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="1">
+        <v>47</v>
+      </c>
+      <c r="K102" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="1">
         <v>43580</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>103</v>
       </c>
@@ -3980,25 +4251,28 @@
         <v>44</v>
       </c>
       <c r="F103" t="s">
+        <v>154</v>
+      </c>
+      <c r="G103" t="s">
         <v>49</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>139</v>
       </c>
-      <c r="H103" t="s">
-        <v>151</v>
-      </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J103" t="s">
-        <v>4</v>
-      </c>
-      <c r="K103" s="1">
+        <v>47</v>
+      </c>
+      <c r="K103" t="s">
+        <v>4</v>
+      </c>
+      <c r="L103" s="1">
         <v>43581</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>104</v>
       </c>
@@ -4015,31 +4289,34 @@
         <v>44</v>
       </c>
       <c r="F104" t="s">
+        <v>154</v>
+      </c>
+      <c r="G104" t="s">
         <v>49</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>140</v>
       </c>
-      <c r="H104" t="s">
-        <v>151</v>
-      </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J104" t="s">
-        <v>4</v>
-      </c>
-      <c r="K104" s="1">
+        <v>47</v>
+      </c>
+      <c r="K104" t="s">
+        <v>4</v>
+      </c>
+      <c r="L104" s="1">
         <v>43582</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>105</v>
       </c>
-      <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>106</v>
       </c>
@@ -4056,25 +4333,28 @@
         <v>44</v>
       </c>
       <c r="F106" t="s">
+        <v>154</v>
+      </c>
+      <c r="G106" t="s">
         <v>1</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>42</v>
       </c>
-      <c r="H106" t="s">
-        <v>151</v>
-      </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J106" t="s">
-        <v>4</v>
-      </c>
-      <c r="K106" s="1">
+        <v>47</v>
+      </c>
+      <c r="K106" t="s">
+        <v>4</v>
+      </c>
+      <c r="L106" s="1">
         <v>43583</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>107</v>
       </c>
@@ -4091,25 +4371,28 @@
         <v>44</v>
       </c>
       <c r="F107" t="s">
+        <v>154</v>
+      </c>
+      <c r="G107" t="s">
         <v>49</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>57</v>
       </c>
-      <c r="H107" t="s">
-        <v>151</v>
-      </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J107" t="s">
-        <v>4</v>
-      </c>
-      <c r="K107" s="1">
+        <v>47</v>
+      </c>
+      <c r="K107" t="s">
+        <v>4</v>
+      </c>
+      <c r="L107" s="1">
         <v>43592</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>108</v>
       </c>
@@ -4126,21 +4409,24 @@
         <v>44</v>
       </c>
       <c r="F108" t="s">
+        <v>154</v>
+      </c>
+      <c r="G108" t="s">
         <v>59</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>72</v>
       </c>
-      <c r="H108" t="s">
-        <v>151</v>
-      </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="J108" t="s">
-        <v>4</v>
-      </c>
-      <c r="K108" s="1">
+        <v>47</v>
+      </c>
+      <c r="K108" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108" s="1">
         <v>43606</v>
       </c>
     </row>
